--- a/TestData/NewBusiness/TestData.xlsx
+++ b/TestData/NewBusiness/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\New Business\SalesAppBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_Automation_TestSuite\TestData\NewBusiness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED8598C-49C4-4801-9BCD-7085A4749AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA81C7A1-BF66-4885-9C85-EF624356B197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="162">
   <si>
     <t>Town</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>Debt</t>
-  </si>
-  <si>
-    <t>DOB</t>
   </si>
   <si>
     <t>0789654565</t>
@@ -302,9 +299,6 @@
     <t>Call_Ref_Number</t>
   </si>
   <si>
-    <t>Card_Number</t>
-  </si>
-  <si>
     <t>62429363625</t>
   </si>
   <si>
@@ -491,9 +485,6 @@
     <t>8001</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>0824123434</t>
   </si>
   <si>
@@ -554,7 +545,7 @@
     <t>19999</t>
   </si>
   <si>
-    <t>10017407</t>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -1677,10 +1668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42906E6D-7A8E-4EC7-BEBD-C72FF8B2CEAE}">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1698,12 +1689,10 @@
     <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1753,30 +1742,24 @@
         <v>14</v>
       </c>
       <c r="Q1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="T1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>20</v>
@@ -1785,119 +1768,58 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="T2" s="3">
-        <v>26081</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W2" s="3">
+      <c r="T2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="3">
         <v>20000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="3"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="I12" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1907,18 +1829,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{210A6DB7-73DC-4D6A-A755-D900BDD8CC07}">
-          <x14:formula1>
-            <xm:f>Cover_Coordinates!$A$3:$A$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>W2:W4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1958,7 +1868,7 @@
         <v>28</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1966,16 +1876,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="3">
         <v>5000</v>
@@ -1986,16 +1896,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="3">
         <v>10000</v>
@@ -2042,7 +1952,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>3</v>
@@ -2060,10 +1970,10 @@
         <v>10</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -2077,13 +1987,13 @@
         <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G2" s="3">
         <v>62429363625</v>
@@ -2097,19 +2007,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G3" s="3">
         <v>62429363625</v>
@@ -2123,19 +2033,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G4" s="3">
         <v>62429363625</v>
@@ -2180,19 +2090,19 @@
         <v>19</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2200,13 +2110,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" s="3">
         <v>15</v>
@@ -2220,13 +2130,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E3" s="3">
         <v>15</v>
@@ -2240,13 +2150,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" s="3">
         <v>15</v>
@@ -2283,22 +2193,22 @@
         <v>19</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>78</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -2309,10 +2219,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
@@ -2321,7 +2231,7 @@
         <v>2191</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -2332,10 +2242,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
@@ -2344,21 +2254,21 @@
         <v>2192</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
@@ -2367,7 +2277,7 @@
         <v>2193</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2399,10 +2309,10 @@
         <v>19</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -2437,7 +2347,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" s="3">
         <v>1000</v>
@@ -2469,22 +2379,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" t="s">
-        <v>120</v>
-      </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2501,10 +2411,10 @@
         <v>60000</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2521,10 +2431,10 @@
         <v>60000</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -2541,10 +2451,10 @@
         <v>40000</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2561,10 +2471,10 @@
         <v>30000</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2581,10 +2491,10 @@
         <v>30000</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2601,10 +2511,10 @@
         <v>50000</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -2621,10 +2531,10 @@
         <v>60000</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -2641,10 +2551,10 @@
         <v>20000</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -2661,10 +2571,10 @@
         <v>30000</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -2681,10 +2591,10 @@
         <v>10000</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2697,7 +2607,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="A1:XFD1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2716,56 +2626,56 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="48"/>
       <c r="E1" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="48"/>
       <c r="G1" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" s="48"/>
       <c r="I1" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>39</v>
-      </c>
       <c r="C2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>39</v>
-      </c>
       <c r="E2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>39</v>
-      </c>
       <c r="G2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>39</v>
-      </c>
       <c r="I2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="26" t="s">
         <v>38</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -3048,7 +2958,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3067,7 +2977,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>22</v>
@@ -3120,10 +3030,10 @@
         <v>3000</v>
       </c>
       <c r="F2" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>132</v>
       </c>
       <c r="H2" s="24">
         <v>1200</v>
@@ -3142,8 +3052,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="B3" s="24">
         <v>30000</v>
@@ -3158,7 +3068,7 @@
         <v>3000</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G3" s="24">
         <v>800</v>
@@ -3181,7 +3091,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" s="24">
         <v>30000</v>
@@ -3196,7 +3106,7 @@
         <v>3000</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G4" s="24">
         <v>800</v>
@@ -3255,63 +3165,63 @@
         <v>19</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="17" t="s">
+      <c r="J1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="33" t="s">
+      <c r="M1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="N1" s="34" t="s">
         <v>54</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="11">
         <v>1000</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="42"/>
@@ -3359,7 +3269,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3390,10 +3300,10 @@
         <v>28</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -3401,19 +3311,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G2" s="3">
         <v>10000</v>
@@ -3471,7 +3381,7 @@
         <v>28</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -3479,16 +3389,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F2" s="3">
         <v>15000</v>
@@ -3496,19 +3406,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F3" s="3">
         <v>10000</v>
@@ -3567,7 +3477,7 @@
         <v>28</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -3575,16 +3485,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F2" s="3">
         <v>30000</v>
@@ -3595,16 +3505,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F3" s="3">
         <v>50000</v>
@@ -3649,7 +3559,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>3</v>
@@ -3664,7 +3574,7 @@
         <v>28</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -3672,59 +3582,59 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/NewBusiness/TestData.xlsx
+++ b/TestData/NewBusiness/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_Automation_TestSuite\TestData\NewBusiness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA81C7A1-BF66-4885-9C85-EF624356B197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25850C8A-1DF3-424C-B1A3-168C7B748B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId1"/>
@@ -742,7 +742,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -826,30 +826,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -859,7 +835,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -896,12 +872,6 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="15" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -944,7 +914,6 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
@@ -953,14 +922,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1354,8 +1315,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EFDA97-5CA9-4562-A4AB-C354AEC1E7B0}" name="Table23" displayName="Table23" ref="B1:J4" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="B1:J4" xr:uid="{82EFDA97-5CA9-4562-A4AB-C354AEC1E7B0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82EFDA97-5CA9-4562-A4AB-C354AEC1E7B0}" name="Table23" displayName="Table23" ref="B1:J2" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="B1:J2" xr:uid="{82EFDA97-5CA9-4562-A4AB-C354AEC1E7B0}"/>
   <tableColumns count="9">
     <tableColumn id="2" xr3:uid="{BEF61276-E02A-480C-BEFC-C47DBC481028}" name="Product" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{A9F2EF90-BCDA-4BE6-9C7F-8FC7F3E578E2}" name="Functionality" dataDxfId="7"/>
@@ -1670,7 +1631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42906E6D-7A8E-4EC7-BEBD-C72FF8B2CEAE}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1852,22 +1813,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="30" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1951,7 +1912,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -2086,22 +2047,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2189,25 +2150,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2305,19 +2266,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
@@ -2398,202 +2359,202 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="39">
+      <c r="A2" s="36">
         <v>18</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="36">
         <v>74</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="36">
         <v>5000</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="36">
         <v>60000</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="36" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="37">
+      <c r="A3" s="34">
         <v>18</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="34">
         <v>64</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="34">
         <v>5000</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="34">
         <v>60000</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="34" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="38">
+      <c r="A4" s="35">
         <v>26</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="35">
         <v>65</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="35">
         <v>5000</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="35">
         <v>40000</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="38">
+      <c r="A5" s="35">
         <v>66</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="35">
         <v>85</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="35">
         <v>5000</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="35">
         <v>30000</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="40">
+      <c r="A6" s="37">
         <v>0</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="37">
         <v>5</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="37">
         <v>5000</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="37">
         <v>30000</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="37" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="40">
+      <c r="A7" s="37">
         <v>6</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="37">
         <v>13</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="37">
         <v>5000</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="37">
         <v>50000</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="37" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="40">
+      <c r="A8" s="37">
         <v>14</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="37">
         <v>25</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="37">
         <v>5000</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="37">
         <v>60000</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="41">
+      <c r="A9" s="38">
         <v>0</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="38">
         <v>5</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="38">
         <v>5000</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="38">
         <v>20000</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="38" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="41">
+      <c r="A10" s="38">
         <v>6</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="38">
         <v>65</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="38">
         <v>5000</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="38">
         <v>30000</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="38" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="41">
+      <c r="A11" s="38">
         <v>66</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="38">
         <v>85</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="38">
         <v>5000</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="38">
         <v>10000</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="38" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2625,56 +2586,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="47" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="47" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="47" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="48"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="24" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2700,7 +2661,7 @@
       <c r="G3" s="4">
         <v>5000</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="25">
         <v>0</v>
       </c>
       <c r="I3" s="4">
@@ -2732,7 +2693,7 @@
       <c r="G4" s="4">
         <v>7500</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="26">
         <v>14.2857</v>
       </c>
       <c r="I4" s="4">
@@ -2764,7 +2725,7 @@
       <c r="G5" s="4">
         <v>10000</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="26">
         <v>28.571400000000001</v>
       </c>
       <c r="I5" s="4">
@@ -2796,7 +2757,7 @@
       <c r="G6" s="4">
         <v>15000</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="26">
         <v>42.857100000000003</v>
       </c>
       <c r="I6" s="4">
@@ -2828,7 +2789,7 @@
       <c r="G7" s="4">
         <v>20000</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="26">
         <v>57.142899999999997</v>
       </c>
       <c r="I7" s="4">
@@ -2856,7 +2817,7 @@
       <c r="G8" s="4">
         <v>30000</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="26">
         <v>71.428600000000003</v>
       </c>
       <c r="I8" s="4">
@@ -2884,7 +2845,7 @@
       <c r="G9" s="4">
         <v>40000</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="26">
         <v>85.714299999999994</v>
       </c>
       <c r="I9" s="4"/>
@@ -2908,7 +2869,7 @@
       <c r="G10" s="4">
         <v>50000</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="25">
         <v>100</v>
       </c>
       <c r="I10" s="4"/>
@@ -2937,7 +2898,7 @@
       <c r="J11" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E14" s="29"/>
+      <c r="E14" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2976,40 +2937,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="20" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3017,37 +2978,37 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="22">
         <v>40000</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="22">
         <v>2000</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="22">
         <v>0</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="22">
         <v>3000</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="22">
         <v>1200</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="22">
         <v>1000</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="22">
         <v>12000</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="22">
         <v>5000</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="22">
         <v>6000</v>
       </c>
     </row>
@@ -3055,37 +3016,37 @@
       <c r="A3" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="22">
         <v>30000</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="22">
         <v>2000</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="22">
         <v>0</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="22">
         <v>3000</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="22">
         <v>800</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="22">
         <v>1200</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="22">
         <v>1000</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="22">
         <v>12000</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="22">
         <v>5000</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="22">
         <v>6000</v>
       </c>
     </row>
@@ -3093,37 +3054,37 @@
       <c r="A4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="22">
         <v>30000</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <v>2000</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <v>0</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="22">
         <v>3000</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="22">
         <v>800</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="22">
         <v>1200</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="22">
         <v>1000</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="22">
         <v>12000</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="22">
         <v>5000</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="22">
         <v>6000</v>
       </c>
     </row>
@@ -3136,10 +3097,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED677DD-E8AF-421A-8C90-EED6078DC1A9}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3191,13 +3152,13 @@
       <c r="J1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="32" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3224,35 +3185,11 @@
         <v>90</v>
       </c>
       <c r="H2" s="15"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="35"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-    </row>
-    <row r="3" spans="1:14" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="36"/>
-    </row>
-    <row r="4" spans="1:14" ht="103" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="46"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="33"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -3284,25 +3221,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="29" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3365,22 +3302,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3461,22 +3398,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>44</v>
       </c>
     </row>

--- a/TestData/NewBusiness/TestData.xlsx
+++ b/TestData/NewBusiness/TestData.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_Automation_TestSuite\TestData\NewBusiness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA81C7A1-BF66-4885-9C85-EF624356B197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC7D4BF-CD76-4291-9E91-9B977E992A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="13" xr2:uid="{6BEDAF8A-103E-4980-A29E-F252802A64CA}"/>
   </bookViews>
   <sheets>
-    <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId1"/>
-    <sheet name="Limits" sheetId="22" r:id="rId2"/>
-    <sheet name="Cover_Coordinates" sheetId="13" r:id="rId3"/>
-    <sheet name="Affordability_Check" sheetId="8" r:id="rId4"/>
-    <sheet name="Scenarios" sheetId="17" r:id="rId5"/>
-    <sheet name="Extended" sheetId="7" r:id="rId6"/>
-    <sheet name="Parents" sheetId="11" r:id="rId7"/>
-    <sheet name="Spouse" sheetId="6" r:id="rId8"/>
-    <sheet name="Beneficiaries" sheetId="9" r:id="rId9"/>
-    <sheet name="Children" sheetId="12" r:id="rId10"/>
-    <sheet name="PolicyPayer" sheetId="10" r:id="rId11"/>
-    <sheet name="BankDetails" sheetId="19" r:id="rId12"/>
-    <sheet name="PhysicalAddress" sheetId="20" r:id="rId13"/>
-    <sheet name="Product_Details" sheetId="21" r:id="rId14"/>
+    <sheet name="Scenarios" sheetId="17" r:id="rId1"/>
+    <sheet name="PolicyHolder_Details" sheetId="1" r:id="rId2"/>
+    <sheet name="Extended" sheetId="7" r:id="rId3"/>
+    <sheet name="Parents" sheetId="11" r:id="rId4"/>
+    <sheet name="Spouse" sheetId="6" r:id="rId5"/>
+    <sheet name="Beneficiaries" sheetId="9" r:id="rId6"/>
+    <sheet name="Children" sheetId="12" r:id="rId7"/>
+    <sheet name="PolicyPayer" sheetId="10" r:id="rId8"/>
+    <sheet name="BankDetails" sheetId="19" r:id="rId9"/>
+    <sheet name="PhysicalAddress" sheetId="20" r:id="rId10"/>
+    <sheet name="Product_Details" sheetId="21" r:id="rId11"/>
+    <sheet name="Cover_Coordinates" sheetId="13" r:id="rId12"/>
+    <sheet name="Limits" sheetId="22" r:id="rId13"/>
+    <sheet name="Affordability_Check" sheetId="8" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="162">
   <si>
     <t>Town</t>
   </si>
@@ -1667,1474 +1667,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42906E6D-7A8E-4EC7-BEBD-C72FF8B2CEAE}">
-  <dimension ref="A1:U2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="U2" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{4F696561-41C7-453B-8E73-F78E8E2206D7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99637A6-F889-4564-89B2-AF62D5E8EE61}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="13.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D3339F5-512A-41D0-967A-447E2468BCB9}">
-          <x14:formula1>
-            <xm:f>Cover_Coordinates!$G$3:$G$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC2C190-2299-448D-81E7-FE582936E6E6}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="13.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.90625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="3">
-        <v>62429363625</v>
-      </c>
-      <c r="H2" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="3">
-        <v>62429363625</v>
-      </c>
-      <c r="H3" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="3">
-        <v>62429363625</v>
-      </c>
-      <c r="H4" s="3">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{1A9CEFBF-6668-43EE-8C58-295655E6BCFD}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{1E0F4F43-21E1-4BE8-A464-AD35447E0237}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{976D4404-A5C6-40F5-B500-D0EFBC5EA33E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6336DFDB-3FD2-47A9-AF34-A47945A6E5B9}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="3">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="3">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="3">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2271F77A-356E-4AF2-ACC6-8BA14B4AB26B}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="15.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2191</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2192</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2193</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98F1F8E-1B22-4BDD-894D-8FFA9CEDA6FB}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="3">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E992BBD1-AABC-4B17-BFEF-BD5C436C24ED}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" customWidth="1"/>
-    <col min="6" max="6" width="19.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="39">
-        <v>18</v>
-      </c>
-      <c r="B2" s="39">
-        <v>74</v>
-      </c>
-      <c r="C2" s="39">
-        <v>5000</v>
-      </c>
-      <c r="D2" s="39">
-        <v>60000</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="37">
-        <v>18</v>
-      </c>
-      <c r="B3" s="37">
-        <v>64</v>
-      </c>
-      <c r="C3" s="37">
-        <v>5000</v>
-      </c>
-      <c r="D3" s="37">
-        <v>60000</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="38">
-        <v>26</v>
-      </c>
-      <c r="B4" s="38">
-        <v>65</v>
-      </c>
-      <c r="C4" s="38">
-        <v>5000</v>
-      </c>
-      <c r="D4" s="38">
-        <v>40000</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="38">
-        <v>66</v>
-      </c>
-      <c r="B5" s="38">
-        <v>85</v>
-      </c>
-      <c r="C5" s="38">
-        <v>5000</v>
-      </c>
-      <c r="D5" s="38">
-        <v>30000</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="40">
-        <v>0</v>
-      </c>
-      <c r="B6" s="40">
-        <v>5</v>
-      </c>
-      <c r="C6" s="40">
-        <v>5000</v>
-      </c>
-      <c r="D6" s="40">
-        <v>30000</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="40">
-        <v>6</v>
-      </c>
-      <c r="B7" s="40">
-        <v>13</v>
-      </c>
-      <c r="C7" s="40">
-        <v>5000</v>
-      </c>
-      <c r="D7" s="40">
-        <v>50000</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="40">
-        <v>14</v>
-      </c>
-      <c r="B8" s="40">
-        <v>25</v>
-      </c>
-      <c r="C8" s="40">
-        <v>5000</v>
-      </c>
-      <c r="D8" s="40">
-        <v>60000</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="41">
-        <v>0</v>
-      </c>
-      <c r="B9" s="41">
-        <v>5</v>
-      </c>
-      <c r="C9" s="41">
-        <v>5000</v>
-      </c>
-      <c r="D9" s="41">
-        <v>20000</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="41">
-        <v>6</v>
-      </c>
-      <c r="B10" s="41">
-        <v>65</v>
-      </c>
-      <c r="C10" s="41">
-        <v>5000</v>
-      </c>
-      <c r="D10" s="41">
-        <v>30000</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="41">
-        <v>66</v>
-      </c>
-      <c r="B11" s="41">
-        <v>85</v>
-      </c>
-      <c r="C11" s="41">
-        <v>5000</v>
-      </c>
-      <c r="D11" s="41">
-        <v>10000</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A88081-1358-4BE1-BD13-46027B97D51F}">
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="1"/>
-    <col min="9" max="9" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="48"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>5000</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>5000</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>5000</v>
-      </c>
-      <c r="H3" s="27">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>5000</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>7500</v>
-      </c>
-      <c r="B4" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>7500</v>
-      </c>
-      <c r="D4" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="E4" s="4">
-        <v>7500</v>
-      </c>
-      <c r="F4" s="4">
-        <v>25</v>
-      </c>
-      <c r="G4" s="4">
-        <v>7500</v>
-      </c>
-      <c r="H4" s="28">
-        <v>14.2857</v>
-      </c>
-      <c r="I4" s="4">
-        <v>7500</v>
-      </c>
-      <c r="J4" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="B5" s="4">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="4">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="F5" s="4">
-        <v>50</v>
-      </c>
-      <c r="G5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="H5" s="28">
-        <v>28.571400000000001</v>
-      </c>
-      <c r="I5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="J5" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>15000</v>
-      </c>
-      <c r="B6" s="4">
-        <v>37.5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>15000</v>
-      </c>
-      <c r="D6" s="4">
-        <v>37.5</v>
-      </c>
-      <c r="E6" s="4">
-        <v>15000</v>
-      </c>
-      <c r="F6" s="4">
-        <v>75</v>
-      </c>
-      <c r="G6" s="4">
-        <v>15000</v>
-      </c>
-      <c r="H6" s="28">
-        <v>42.857100000000003</v>
-      </c>
-      <c r="I6" s="4">
-        <v>15000</v>
-      </c>
-      <c r="J6" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>20000</v>
-      </c>
-      <c r="B7" s="4">
-        <v>50</v>
-      </c>
-      <c r="C7" s="4">
-        <v>20000</v>
-      </c>
-      <c r="D7" s="4">
-        <v>50</v>
-      </c>
-      <c r="E7" s="4">
-        <v>20000</v>
-      </c>
-      <c r="F7" s="4">
-        <v>100</v>
-      </c>
-      <c r="G7" s="4">
-        <v>20000</v>
-      </c>
-      <c r="H7" s="28">
-        <v>57.142899999999997</v>
-      </c>
-      <c r="I7" s="4">
-        <v>20000</v>
-      </c>
-      <c r="J7" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>30000</v>
-      </c>
-      <c r="B8" s="4">
-        <v>62.5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>30000</v>
-      </c>
-      <c r="D8" s="4">
-        <v>62.5</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
-        <v>30000</v>
-      </c>
-      <c r="H8" s="28">
-        <v>71.428600000000003</v>
-      </c>
-      <c r="I8" s="4">
-        <v>30000</v>
-      </c>
-      <c r="J8" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>40000</v>
-      </c>
-      <c r="B9" s="4">
-        <v>75</v>
-      </c>
-      <c r="C9" s="4">
-        <v>40000</v>
-      </c>
-      <c r="D9" s="4">
-        <v>75</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
-        <v>40000</v>
-      </c>
-      <c r="H9" s="28">
-        <v>85.714299999999994</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>50000</v>
-      </c>
-      <c r="B10" s="4">
-        <v>87.5</v>
-      </c>
-      <c r="C10" s="4">
-        <v>50000</v>
-      </c>
-      <c r="D10" s="4">
-        <v>87.5</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
-        <v>50000</v>
-      </c>
-      <c r="H10" s="27">
-        <v>100</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>60000</v>
-      </c>
-      <c r="B11" s="4">
-        <v>100</v>
-      </c>
-      <c r="C11" s="4">
-        <v>60000</v>
-      </c>
-      <c r="D11" s="4">
-        <v>100</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
-        <v>60000</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E14" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C580E6-39BE-4917-B92D-9C5DAD8C2402}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="13.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="8.7265625" style="1"/>
-    <col min="12" max="12" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24">
-        <v>40000</v>
-      </c>
-      <c r="C2" s="24">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="24">
-        <v>0</v>
-      </c>
-      <c r="E2" s="24">
-        <v>3000</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" s="24">
-        <v>1200</v>
-      </c>
-      <c r="I2" s="24">
-        <v>1000</v>
-      </c>
-      <c r="J2" s="24">
-        <v>12000</v>
-      </c>
-      <c r="K2" s="24">
-        <v>5000</v>
-      </c>
-      <c r="L2" s="24">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="24">
-        <v>30000</v>
-      </c>
-      <c r="C3" s="24">
-        <v>2000</v>
-      </c>
-      <c r="D3" s="24">
-        <v>0</v>
-      </c>
-      <c r="E3" s="24">
-        <v>3000</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="24">
-        <v>800</v>
-      </c>
-      <c r="H3" s="24">
-        <v>1200</v>
-      </c>
-      <c r="I3" s="24">
-        <v>1000</v>
-      </c>
-      <c r="J3" s="24">
-        <v>12000</v>
-      </c>
-      <c r="K3" s="24">
-        <v>5000</v>
-      </c>
-      <c r="L3" s="24">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="24">
-        <v>30000</v>
-      </c>
-      <c r="C4" s="24">
-        <v>2000</v>
-      </c>
-      <c r="D4" s="24">
-        <v>0</v>
-      </c>
-      <c r="E4" s="24">
-        <v>3000</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="24">
-        <v>800</v>
-      </c>
-      <c r="H4" s="24">
-        <v>1200</v>
-      </c>
-      <c r="I4" s="24">
-        <v>1000</v>
-      </c>
-      <c r="J4" s="24">
-        <v>12000</v>
-      </c>
-      <c r="K4" s="24">
-        <v>5000</v>
-      </c>
-      <c r="L4" s="24">
-        <v>6000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED677DD-E8AF-421A-8C90-EED6078DC1A9}">
   <dimension ref="A1:N4"/>
   <sheetViews>
@@ -3264,7 +1796,1137 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2271F77A-356E-4AF2-ACC6-8BA14B4AB26B}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="15.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2191</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2192</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2193</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98F1F8E-1B22-4BDD-894D-8FFA9CEDA6FB}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A88081-1358-4BE1-BD13-46027B97D51F}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="1"/>
+    <col min="9" max="9" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="48"/>
+      <c r="G1" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="48"/>
+      <c r="I1" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="48"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>5000</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5000</v>
+      </c>
+      <c r="H3" s="27">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>7500</v>
+      </c>
+      <c r="B4" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7500</v>
+      </c>
+      <c r="D4" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7500</v>
+      </c>
+      <c r="F4" s="4">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4">
+        <v>7500</v>
+      </c>
+      <c r="H4" s="28">
+        <v>14.2857</v>
+      </c>
+      <c r="I4" s="4">
+        <v>7500</v>
+      </c>
+      <c r="J4" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>10000</v>
+      </c>
+      <c r="B5" s="4">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F5" s="4">
+        <v>50</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H5" s="28">
+        <v>28.571400000000001</v>
+      </c>
+      <c r="I5" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J5" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>15000</v>
+      </c>
+      <c r="B6" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>15000</v>
+      </c>
+      <c r="D6" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>15000</v>
+      </c>
+      <c r="F6" s="4">
+        <v>75</v>
+      </c>
+      <c r="G6" s="4">
+        <v>15000</v>
+      </c>
+      <c r="H6" s="28">
+        <v>42.857100000000003</v>
+      </c>
+      <c r="I6" s="4">
+        <v>15000</v>
+      </c>
+      <c r="J6" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>20000</v>
+      </c>
+      <c r="B7" s="4">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4">
+        <v>20000</v>
+      </c>
+      <c r="D7" s="4">
+        <v>50</v>
+      </c>
+      <c r="E7" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F7" s="4">
+        <v>100</v>
+      </c>
+      <c r="G7" s="4">
+        <v>20000</v>
+      </c>
+      <c r="H7" s="28">
+        <v>57.142899999999997</v>
+      </c>
+      <c r="I7" s="4">
+        <v>20000</v>
+      </c>
+      <c r="J7" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>30000</v>
+      </c>
+      <c r="B8" s="4">
+        <v>62.5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>30000</v>
+      </c>
+      <c r="D8" s="4">
+        <v>62.5</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <v>30000</v>
+      </c>
+      <c r="H8" s="28">
+        <v>71.428600000000003</v>
+      </c>
+      <c r="I8" s="4">
+        <v>30000</v>
+      </c>
+      <c r="J8" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>40000</v>
+      </c>
+      <c r="B9" s="4">
+        <v>75</v>
+      </c>
+      <c r="C9" s="4">
+        <v>40000</v>
+      </c>
+      <c r="D9" s="4">
+        <v>75</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <v>40000</v>
+      </c>
+      <c r="H9" s="28">
+        <v>85.714299999999994</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>50000</v>
+      </c>
+      <c r="B10" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>50000</v>
+      </c>
+      <c r="D10" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <v>50000</v>
+      </c>
+      <c r="H10" s="27">
+        <v>100</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>60000</v>
+      </c>
+      <c r="B11" s="4">
+        <v>100</v>
+      </c>
+      <c r="C11" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D11" s="4">
+        <v>100</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <v>60000</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E14" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E992BBD1-AABC-4B17-BFEF-BD5C436C24ED}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="39">
+        <v>18</v>
+      </c>
+      <c r="B2" s="39">
+        <v>74</v>
+      </c>
+      <c r="C2" s="39">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="39">
+        <v>60000</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="37">
+        <v>18</v>
+      </c>
+      <c r="B3" s="37">
+        <v>64</v>
+      </c>
+      <c r="C3" s="37">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="37">
+        <v>60000</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="38">
+        <v>26</v>
+      </c>
+      <c r="B4" s="38">
+        <v>65</v>
+      </c>
+      <c r="C4" s="38">
+        <v>5000</v>
+      </c>
+      <c r="D4" s="38">
+        <v>40000</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="38">
+        <v>66</v>
+      </c>
+      <c r="B5" s="38">
+        <v>85</v>
+      </c>
+      <c r="C5" s="38">
+        <v>5000</v>
+      </c>
+      <c r="D5" s="38">
+        <v>30000</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="40">
+        <v>0</v>
+      </c>
+      <c r="B6" s="40">
+        <v>5</v>
+      </c>
+      <c r="C6" s="40">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="40">
+        <v>30000</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="40">
+        <v>6</v>
+      </c>
+      <c r="B7" s="40">
+        <v>13</v>
+      </c>
+      <c r="C7" s="40">
+        <v>5000</v>
+      </c>
+      <c r="D7" s="40">
+        <v>50000</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="40">
+        <v>14</v>
+      </c>
+      <c r="B8" s="40">
+        <v>25</v>
+      </c>
+      <c r="C8" s="40">
+        <v>5000</v>
+      </c>
+      <c r="D8" s="40">
+        <v>60000</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="41">
+        <v>0</v>
+      </c>
+      <c r="B9" s="41">
+        <v>5</v>
+      </c>
+      <c r="C9" s="41">
+        <v>5000</v>
+      </c>
+      <c r="D9" s="41">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="41">
+        <v>6</v>
+      </c>
+      <c r="B10" s="41">
+        <v>65</v>
+      </c>
+      <c r="C10" s="41">
+        <v>5000</v>
+      </c>
+      <c r="D10" s="41">
+        <v>30000</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="41">
+        <v>66</v>
+      </c>
+      <c r="B11" s="41">
+        <v>85</v>
+      </c>
+      <c r="C11" s="41">
+        <v>5000</v>
+      </c>
+      <c r="D11" s="41">
+        <v>10000</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C580E6-39BE-4917-B92D-9C5DAD8C2402}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="8.7265625" style="1"/>
+    <col min="12" max="12" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24">
+        <v>40000</v>
+      </c>
+      <c r="C2" s="24">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="24">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24">
+        <v>3000</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="24">
+        <v>1200</v>
+      </c>
+      <c r="I2" s="24">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="24">
+        <v>12000</v>
+      </c>
+      <c r="K2" s="24">
+        <v>5000</v>
+      </c>
+      <c r="L2" s="24">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="24">
+        <v>30000</v>
+      </c>
+      <c r="C3" s="24">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0</v>
+      </c>
+      <c r="E3" s="24">
+        <v>3000</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="24">
+        <v>800</v>
+      </c>
+      <c r="H3" s="24">
+        <v>1200</v>
+      </c>
+      <c r="I3" s="24">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="24">
+        <v>12000</v>
+      </c>
+      <c r="K3" s="24">
+        <v>5000</v>
+      </c>
+      <c r="L3" s="24">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="24">
+        <v>30000</v>
+      </c>
+      <c r="C4" s="24">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="24">
+        <v>3000</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="24">
+        <v>800</v>
+      </c>
+      <c r="H4" s="24">
+        <v>1200</v>
+      </c>
+      <c r="I4" s="24">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="24">
+        <v>12000</v>
+      </c>
+      <c r="K4" s="24">
+        <v>5000</v>
+      </c>
+      <c r="L4" s="24">
+        <v>6000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42906E6D-7A8E-4EC7-BEBD-C72FF8B2CEAE}">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{4F696561-41C7-453B-8E73-F78E8E2206D7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB677AF7-CD04-4859-B2D3-DBB348803FA9}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -3346,7 +3008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A25D57-60AB-4959-A648-53F314C54D9C}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3442,7 +3104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44766631-B11A-4479-8024-A9637BA1BEB4}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3538,7 +3200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99D9670-810C-4DE3-B59B-B8F4007A7BBA}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -3641,4 +3303,342 @@
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99637A6-F889-4564-89B2-AF62D5E8EE61}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D3339F5-512A-41D0-967A-447E2468BCB9}">
+          <x14:formula1>
+            <xm:f>Cover_Coordinates!$G$3:$G$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC2C190-2299-448D-81E7-FE582936E6E6}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.90625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="3">
+        <v>62429363625</v>
+      </c>
+      <c r="H2" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="3">
+        <v>62429363625</v>
+      </c>
+      <c r="H3" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="3">
+        <v>62429363625</v>
+      </c>
+      <c r="H4" s="3">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{1A9CEFBF-6668-43EE-8C58-295655E6BCFD}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{1E0F4F43-21E1-4BE8-A464-AD35447E0237}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{976D4404-A5C6-40F5-B500-D0EFBC5EA33E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6336DFDB-3FD2-47A9-AF34-A47945A6E5B9}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="3">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="3">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="3">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>